--- a/config_debug/lwzb_game_config.xlsx
+++ b/config_debug/lwzb_game_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="rate|" sheetId="7" r:id="rId1"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>lwzb_imgf_wzjl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,5000,10000,50000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -364,10 +360,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10000,100000,500000,1000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>财神巨奖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -377,6 +369,14 @@
   </si>
   <si>
     <t>财神奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,1000,10000,100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,100000,500000,5000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -1738,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
@@ -1786,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -1803,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -1820,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1854,10 +1854,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -1888,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1905,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1922,10 +1922,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -2260,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
@@ -2308,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -2325,10 +2325,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -2342,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -2359,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -2376,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2393,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -2410,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2427,10 +2427,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2444,10 +2444,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -2785,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
@@ -2799,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -2833,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -2886,15 +2886,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7">
         <v>20</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7">
         <v>12</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
         <v>5</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -2947,22 +2947,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -2982,7 +2982,7 @@
         <v>200000</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2993,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -3002,7 +3002,7 @@
         <v>500000</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -3022,7 +3022,7 @@
         <v>1000000</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3033,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -3042,7 +3042,7 @@
         <v>2000000</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3062,7 +3062,7 @@
         <v>3000000</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -3082,7 +3082,7 @@
         <v>4000000</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -3102,7 +3102,7 @@
         <v>5000000</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -3122,7 +3122,7 @@
         <v>8000000</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -3142,7 +3142,7 @@
         <v>10000000</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -3162,7 +3162,7 @@
         <v>2000000</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3173,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -3182,7 +3182,7 @@
         <v>5000000</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3193,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>30</v>
@@ -3202,7 +3202,7 @@
         <v>10000000</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3213,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <v>30</v>
@@ -3222,7 +3222,7 @@
         <v>20000000</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>30</v>
@@ -3242,7 +3242,7 @@
         <v>30000000</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3253,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -3262,7 +3262,7 @@
         <v>40000000</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>30</v>
@@ -3282,7 +3282,7 @@
         <v>50000000</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3293,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>30</v>
@@ -3302,7 +3302,7 @@
         <v>80000000</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3313,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>30</v>
@@ -3322,7 +3322,7 @@
         <v>100000000</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/lwzb_game_config.xlsx
+++ b/config_debug/lwzb_game_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="rate|" sheetId="7" r:id="rId1"/>
@@ -2937,7 +2937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2996,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,7 +3038,7 @@
         <v>67</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>78</v>
@@ -3058,7 +3058,7 @@
         <v>68</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>79</v>
@@ -3078,7 +3078,7 @@
         <v>69</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>80</v>
@@ -3098,7 +3098,7 @@
         <v>96</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>81</v>
@@ -3118,7 +3118,7 @@
         <v>70</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>82</v>
@@ -3138,7 +3138,7 @@
         <v>71</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>83</v>
@@ -3158,7 +3158,7 @@
         <v>72</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>84</v>
@@ -3178,7 +3178,7 @@
         <v>73</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>85</v>
@@ -3198,7 +3198,7 @@
         <v>74</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>86</v>
@@ -3218,7 +3218,7 @@
         <v>70</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>87</v>
@@ -3238,7 +3238,7 @@
         <v>71</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>88</v>
@@ -3258,7 +3258,7 @@
         <v>72</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>89</v>
@@ -3278,7 +3278,7 @@
         <v>74</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>90</v>
@@ -3298,7 +3298,7 @@
         <v>97</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>91</v>
@@ -3318,7 +3318,7 @@
         <v>98</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>92</v>
@@ -3338,7 +3338,7 @@
         <v>75</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>93</v>
@@ -3358,7 +3358,7 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>94</v>
@@ -3378,7 +3378,7 @@
         <v>77</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>95</v>
